--- a/data/trans_camb/P25A_N_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_N_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,45</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,19</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,17</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 3,62</t>
+          <t>-2,45; 8,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,62</t>
+          <t>-1,93; 9,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 6,32</t>
+          <t>-2,36; 8,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 3,37</t>
+          <t>-4,16; 9,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 4,21</t>
+          <t>-2,49; 10,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 20,77</t>
+          <t>-7,22; 4,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 2,51</t>
+          <t>-6,69; 5,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 3,39</t>
+          <t>-0,99; 14,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 10,9</t>
+          <t>-9,13; 8,78</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-15,24; 4,2</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,56; 4,09</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 5,24</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 9,79</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 7,07</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 5,13</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,03%</t>
+          <t>45,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>68,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-19,91%</t>
+          <t>59,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-17,07%</t>
+          <t>98,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>142,29%</t>
+          <t>-14,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-15,78%</t>
+          <t>-8,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>80,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>109,89%</t>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-26,64%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18,96%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>81,16%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13,89%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-4,85%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,27; 935,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,02; 904,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-71,34; 857,65</t>
+          <t>-78,7; 966,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,91; 75,65</t>
+          <t>-72,03; 548,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,82; 96,61</t>
+          <t>-54,59; 741,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,91; 399,24</t>
+          <t>-66,77; 84,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-58,42; 83,22</t>
+          <t>-60,24; 110,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,3; 92,82</t>
+          <t>-20,58; 243,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,37; 279,11</t>
+          <t>-49,78; 97,24</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-62,69; 31,23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-53,12; 117,53</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-39,07; 149,28</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 283,14</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-33,16; 126,65</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-47,89; 64,52</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,84</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,87</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,61</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,36</t>
+          <t>-4,9; 3,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 4,72</t>
+          <t>-3,86; 4,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 13,15</t>
+          <t>-0,61; 11,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 5,01</t>
+          <t>-5,35; 10,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 4,53</t>
+          <t>-4,9; 10,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 11,46</t>
+          <t>-5,09; 5,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 3,31</t>
+          <t>-5,1; 4,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,63</t>
+          <t>3,74; 18,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 9,89</t>
+          <t>-4,69; 12,41</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 16,81</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 3,38</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 3,62</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 12,96</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 9,19</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 11,2</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>-7,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>121,92%</t>
+          <t>126,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,62%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>70,2%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>145,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>90,19%</t>
+          <t>18,94%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>69,55%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-2,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>137,01%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>21,37%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>51,39%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-74,19; 225,11</t>
+          <t>-76,28; 194,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,65; 230,3</t>
+          <t>-61,01; 202,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,57; 566,97</t>
+          <t>-17,27; 495,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,23; 97,32</t>
+          <t>-41,46; 175,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,01; 98,88</t>
+          <t>-38,63; 204,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 245,01</t>
+          <t>-49,28; 113,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,99; 87,59</t>
+          <t>-50,27; 119,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,91; 88,4</t>
+          <t>30,78; 369,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 241,97</t>
+          <t>-23,43; 87,26</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 174,97</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-49,59; 81,04</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-40,37; 93,26</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>42,54; 305,32</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-19,26; 86,65</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-8,51; 131,05</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>7,06</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,69</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,77</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7,61</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 7,29</t>
+          <t>-1,32; 6,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,83</t>
+          <t>-5,05; 1,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 9,0</t>
+          <t>-3,46; 4,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 4,52</t>
+          <t>2,23; 13,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 5,59</t>
+          <t>-2,08; 10,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 8,37</t>
+          <t>-3,87; 5,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,62</t>
+          <t>-2,92; 6,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 2,88</t>
+          <t>3,07; 14,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 6,97</t>
+          <t>-0,1; 13,59</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,2; 18,55</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 4,73</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 3,19</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 8,23</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 11,49</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 12,47</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>82,77%</t>
+          <t>64,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-23,5%</t>
+          <t>-32,23%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>102,86%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,25%</t>
+          <t>152,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>45,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>81,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>41,63%</t>
+          <t>37,93%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>83,62%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>24,55%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>59,24%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>56,59%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>68,38%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 312,23</t>
+          <t>-21,05; 252,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,37; 96,12</t>
+          <t>-72,47; 57,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 327,79</t>
+          <t>-55,93; 145,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 51,6</t>
+          <t>30,09; 416,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 65,82</t>
+          <t>-20,68; 159,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,32; 96,99</t>
+          <t>-32,0; 69,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,71; 74,75</t>
+          <t>-21,92; 84,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 49,47</t>
+          <t>22,9; 179,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 122,45</t>
+          <t>-1,08; 85,35</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>23,14; 170,89</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-14,73; 77,55</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-29,47; 53,61</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 133,48</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>14,32; 117,0</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>17,82; 133,11</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>9,66</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3,66</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,14</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 5,14</t>
+          <t>-6,04; 4,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 7,29</t>
+          <t>-3,31; 7,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 10,28</t>
+          <t>-3,65; 7,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 5,56</t>
+          <t>-3,6; 8,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 9,19</t>
+          <t>-5,66; 8,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 15,6</t>
+          <t>-5,06; 5,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 3,91</t>
+          <t>-1,73; 8,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 7,05</t>
+          <t>2,96; 15,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 10,72</t>
+          <t>-4,74; 10,31</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 11,61</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; 3,59</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 6,51</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 10,42</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 6,82</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 7,44</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>67,43%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>69,79%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>57,89%</t>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16,32%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>54,78%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>13,31%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>15,12%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,07; 95,14</t>
+          <t>-47,37; 74,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 133,91</t>
+          <t>-29,61; 122,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 195,04</t>
+          <t>-30,87; 128,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,42; 54,01</t>
+          <t>-26,26; 101,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 87,8</t>
+          <t>-35,8; 92,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,01; 141,43</t>
+          <t>-31,13; 48,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,57; 44,37</t>
+          <t>-10,94; 76,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 80,25</t>
+          <t>17,29; 135,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,1; 118,01</t>
+          <t>-18,62; 51,65</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-15,34; 60,85</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-28,73; 39,74</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 71,67</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>15,62; 113,51</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; 45,2</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-13,14; 51,05</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,77</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>12,54</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,83</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>13,0</t>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-5,15</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>5,85</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>5,97</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 3,02</t>
+          <t>-7,78; 3,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 7,98</t>
+          <t>-4,79; 7,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,92; 17,92</t>
+          <t>-3,37; 8,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 9,31</t>
+          <t>4,49; 20,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 7,55</t>
+          <t>-4,11; 13,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,26; 22,29</t>
+          <t>-6,13; 8,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 5,08</t>
+          <t>-8,22; 6,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 5,35</t>
+          <t>1,14; 18,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,16; 19,03</t>
+          <t>-10,07; 8,83</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-14,49; 3,85</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 3,94</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,08; 5,34</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 10,88</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 11,49</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-6,61; 5,83</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-17,73%</t>
+          <t>-19,34%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>93,56%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>87,25%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>79,61%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-1,24%</t>
+          <t>-2,66%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>47,64%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>85,92%</t>
+          <t>-1,11%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-15,38%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-4,37%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>37,0%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>27,57%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-1,78%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-51,69; 37,79</t>
+          <t>-51,65; 34,21</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,37; 94,51</t>
+          <t>-32,75; 79,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>18,01; 208,11</t>
+          <t>-24,0; 97,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-26,67; 61,73</t>
+          <t>24,19; 180,46</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,43; 52,0</t>
+          <t>-16,84; 77,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>27,43; 149,81</t>
+          <t>-26,12; 56,97</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-28,28; 39,14</t>
+          <t>-34,9; 42,66</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 43,5</t>
+          <t>4,29; 111,85</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>40,16; 145,64</t>
+          <t>-29,26; 39,24</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-38,74; 13,03</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-28,38; 30,4</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-23,25; 40,74</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 84,23</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 61,97</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-21,16; 22,77</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,76</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-5,97</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-9,29</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-4,95</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-8,11</t>
+          <t>4,47</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>14,83</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-4,58</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-4,8</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-1,91</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>11,2</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 8,96</t>
+          <t>-11,9; 6,49</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 5,45</t>
+          <t>-13,74; 4,47</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 1,96</t>
+          <t>-14,76; 4,73</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 1,78</t>
+          <t>-4,67; 12,48</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 2,91</t>
+          <t>-1,68; 15,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 0,74</t>
+          <t>-14,92; 2,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 2,44</t>
+          <t>-13,59; 4,35</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 1,93</t>
+          <t>-10,77; 11,53</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-14,82; -1,71</t>
+          <t>-7,79; 16,46</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 25,83</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-11,28; 1,59</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-11,72; 2,28</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-8,75; 6,22</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 11,75</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 19,1</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-8,01%</t>
+          <t>-11,05%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-19,89%</t>
+          <t>-23,11%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-37,5%</t>
+          <t>-25,56%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-21,14%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-19,87%</t>
+          <t>53,54%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-30,92%</t>
+          <t>-21,12%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-17,0%</t>
+          <t>-16,7%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-19,9%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-32,64%</t>
+          <t>14,38%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>71,46%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-17,98%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-18,84%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-7,49%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>18,5%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>66,9%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-46,88; 74,51</t>
+          <t>-50,33; 46,15</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-55,81; 42,99</t>
+          <t>-55,98; 36,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-67,48; 21,62</t>
+          <t>-61,5; 37,24</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-43,37; 7,0</t>
+          <t>-28,47; 124,49</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-44,76; 12,46</t>
+          <t>-15,04; 198,76</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-54,99; 4,63</t>
+          <t>-41,76; 9,71</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-37,68; 11,56</t>
+          <t>-38,74; 17,92</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 9,9</t>
+          <t>-29,41; 42,11</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-52,89; -7,2</t>
+          <t>-21,44; 67,74</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 159,66</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-38,36; 6,82</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-40,14; 11,29</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-30,78; 27,78</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-15,07; 58,94</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>23,18; 141,1</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>7,25</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>5,69</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
           <t>-0,64</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>4,02</t>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>4,39</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>4,07</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>4,63</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 2,52</t>
+          <t>-2,42; 2,5</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,37</t>
+          <t>-2,62; 2,33</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,34; 5,77</t>
+          <t>-1,09; 3,84</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 1,35</t>
+          <t>2,03; 8,21</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 2,03</t>
+          <t>0,2; 6,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,34; 8,1</t>
+          <t>-4,18; 1,33</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,18</t>
+          <t>-3,14; 2,32</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,63</t>
+          <t>4,07; 10,91</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,84; 6,11</t>
+          <t>-0,39; 7,43</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 9,53</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 1,14</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 1,71</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 6,74</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 6,69</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 7,0</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>51,96%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-4,5%</t>
+          <t>32,07%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>-8,38%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-5,46%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-2,22%</t>
+          <t>46,62%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>14,79%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>27,78%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-5,36%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-1,05%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>36,58%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>24,81%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>29,28%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 37,29</t>
+          <t>-25,66; 35,46</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-23,78; 35,16</t>
+          <t>-26,71; 32,82</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2,72; 84,77</t>
+          <t>-12,15; 53,99</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 10,21</t>
+          <t>18,0; 97,97</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 15,1</t>
+          <t>1,44; 71,71</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>7,22; 57,17</t>
+          <t>-24,05; 9,75</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 10,66</t>
+          <t>-18,4; 16,77</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 15,75</t>
+          <t>22,89; 76,21</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>12,93; 55,81</t>
+          <t>-1,62; 36,24</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>9,88; 52,23</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-20,31; 10,37</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-16,26; 15,01</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>16,43; 61,58</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>9,48; 43,12</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>12,89; 46,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
